--- a/teaching/traditional_assets/database/data/romania/romania_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_oil_gas_production_and_exploration.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0362</v>
+        <v>0.00328</v>
       </c>
       <c r="E2">
-        <v>0.0344</v>
+        <v>-0.0781</v>
       </c>
       <c r="G2">
-        <v>0.5310238269496625</v>
+        <v>0.6350098619329388</v>
       </c>
       <c r="H2">
-        <v>0.5310238269496625</v>
+        <v>0.6350098619329388</v>
       </c>
       <c r="I2">
-        <v>0.3819630804261201</v>
+        <v>0.3773175542406312</v>
       </c>
       <c r="J2">
-        <v>0.3322186188808489</v>
+        <v>0.3239595162672086</v>
       </c>
       <c r="K2">
-        <v>357.3</v>
+        <v>204</v>
       </c>
       <c r="L2">
-        <v>0.2905586728470358</v>
+        <v>0.2011834319526627</v>
       </c>
       <c r="M2">
-        <v>312</v>
+        <v>149.5</v>
       </c>
       <c r="N2">
-        <v>0.09307598222010083</v>
+        <v>0.05493697864990996</v>
       </c>
       <c r="O2">
-        <v>0.873215785054576</v>
+        <v>0.7328431372549019</v>
       </c>
       <c r="P2">
-        <v>312</v>
+        <v>149.5</v>
       </c>
       <c r="Q2">
-        <v>0.09307598222010083</v>
+        <v>0.05493697864990996</v>
       </c>
       <c r="R2">
-        <v>0.873215785054576</v>
+        <v>0.7328431372549019</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +639,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>45.7</v>
+        <v>168.5</v>
       </c>
       <c r="V2">
-        <v>0.0136332448315981</v>
+        <v>0.06191893580274133</v>
       </c>
       <c r="W2">
-        <v>0.1771091503915931</v>
+        <v>0.1224930947520115</v>
       </c>
       <c r="X2">
-        <v>0.1035919040819621</v>
+        <v>0.07314346024225007</v>
       </c>
       <c r="Y2">
-        <v>0.07351724630963102</v>
+        <v>0.04934963450976144</v>
       </c>
       <c r="Z2">
-        <v>0.6526723634626612</v>
+        <v>0.6252350797575519</v>
       </c>
       <c r="AA2">
-        <v>0.2168299111712647</v>
+        <v>0.2025508539915461</v>
       </c>
       <c r="AB2">
-        <v>0.1035517489117205</v>
+        <v>0.07311194674092447</v>
       </c>
       <c r="AC2">
-        <v>0.1132781622595442</v>
+        <v>0.1294389072506216</v>
       </c>
       <c r="AD2">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="AG2">
-        <v>-43.61</v>
+        <v>-166.39</v>
       </c>
       <c r="AH2">
-        <v>0.0006231012554446826</v>
+        <v>0.0007747639907322069</v>
       </c>
       <c r="AI2">
-        <v>0.001253380829870044</v>
+        <v>0.001166899862294756</v>
       </c>
       <c r="AJ2">
-        <v>-0.01318123978008094</v>
+        <v>-0.06512558172303524</v>
       </c>
       <c r="AK2">
-        <v>-0.0268900412507168</v>
+        <v>-0.1014752608693</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="AN2">
-        <v>0.003141912206855081</v>
+        <v>0.003849662470352125</v>
       </c>
       <c r="AP2">
-        <v>-0.06555923030667468</v>
+        <v>-0.3035759897828863</v>
       </c>
       <c r="AQ2">
-        <v>-41.9375</v>
+        <v>-33.85840707964602</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0362</v>
+        <v>0.00328</v>
       </c>
       <c r="E3">
-        <v>0.0344</v>
+        <v>-0.0781</v>
       </c>
       <c r="G3">
-        <v>0.5310238269496625</v>
+        <v>0.6350098619329388</v>
       </c>
       <c r="H3">
-        <v>0.5310238269496625</v>
+        <v>0.6350098619329388</v>
       </c>
       <c r="I3">
-        <v>0.3819630804261201</v>
+        <v>0.3773175542406312</v>
       </c>
       <c r="J3">
-        <v>0.3322186188808489</v>
+        <v>0.3239595162672086</v>
       </c>
       <c r="K3">
-        <v>357.3</v>
+        <v>204</v>
       </c>
       <c r="L3">
-        <v>0.2905586728470358</v>
+        <v>0.2011834319526627</v>
       </c>
       <c r="M3">
-        <v>312</v>
+        <v>149.5</v>
       </c>
       <c r="N3">
-        <v>0.09307598222010083</v>
+        <v>0.05493697864990996</v>
       </c>
       <c r="O3">
-        <v>0.873215785054576</v>
+        <v>0.7328431372549019</v>
       </c>
       <c r="P3">
-        <v>312</v>
+        <v>149.5</v>
       </c>
       <c r="Q3">
-        <v>0.09307598222010083</v>
+        <v>0.05493697864990996</v>
       </c>
       <c r="R3">
-        <v>0.873215785054576</v>
+        <v>0.7328431372549019</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +770,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>45.7</v>
+        <v>168.5</v>
       </c>
       <c r="V3">
-        <v>0.0136332448315981</v>
+        <v>0.06191893580274133</v>
       </c>
       <c r="W3">
-        <v>0.1771091503915931</v>
+        <v>0.1224930947520115</v>
       </c>
       <c r="X3">
-        <v>0.1035919040819621</v>
+        <v>0.07314346024225007</v>
       </c>
       <c r="Y3">
-        <v>0.07351724630963102</v>
+        <v>0.04934963450976144</v>
       </c>
       <c r="Z3">
-        <v>0.6526723634626612</v>
+        <v>0.6252350797575519</v>
       </c>
       <c r="AA3">
-        <v>0.2168299111712647</v>
+        <v>0.2025508539915461</v>
       </c>
       <c r="AB3">
-        <v>0.1035517489117205</v>
+        <v>0.07311194674092447</v>
       </c>
       <c r="AC3">
-        <v>0.1132781622595442</v>
+        <v>0.1294389072506216</v>
       </c>
       <c r="AD3">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="AG3">
-        <v>-43.61</v>
+        <v>-166.39</v>
       </c>
       <c r="AH3">
-        <v>0.0006231012554446826</v>
+        <v>0.0007747639907322069</v>
       </c>
       <c r="AI3">
-        <v>0.001253380829870044</v>
+        <v>0.001166899862294756</v>
       </c>
       <c r="AJ3">
-        <v>-0.01318123978008094</v>
+        <v>-0.06512558172303524</v>
       </c>
       <c r="AK3">
-        <v>-0.0268900412507168</v>
+        <v>-0.1014752608693</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="AN3">
-        <v>0.003141912206855081</v>
+        <v>0.003849662470352125</v>
       </c>
       <c r="AP3">
-        <v>-0.06555923030667468</v>
+        <v>-0.3035759897828863</v>
       </c>
       <c r="AQ3">
-        <v>-41.9375</v>
+        <v>-33.85840707964602</v>
       </c>
     </row>
   </sheetData>
